--- a/biology/Botanique/Solanum_oxycarpum/Solanum_oxycarpum.xlsx
+++ b/biology/Botanique/Solanum_oxycarpum/Solanum_oxycarpum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum oxycarpum est une espèce de plante herbacée tubéreuse vivace de la famille des Solanaceae, originaire du Mexique. Elle est apparentée à la pomme de terre cultivée, et comme celle-ci, elle est tétraploïde (2n = 4x = 48).
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum oxycarpum est une plante herbacée tubéreuse vivace pouvant atteindre 2 m de haut.
 Les feuilles sont assez grandes, mesurent de 15 à 35 cm de long et de 10 à 19 cm de large. Elles sont composées imparipennées et comptent de 5 à 7 paires de folioles latérales et une foliole terminale. Ces folioles sont de forme ovale à elliptique.
 Les fleurs ont une corolle pentamère, arrondie, de 2 à 3 cm de diamètre, de couleur pourpre bleuâtre.
 Elles sont groupées en inflorescences cymeuses comptant jusqu'à une quarantaine de fleurs.
-Les fruits sont de petites baies globuleuses à conique de 2 à 5 cm de long, de couleur verte. Ils contiennent de nombreuses graines ovoïdes de 2 mm de long environ[1].
+Les fruits sont de petites baies globuleuses à conique de 2 à 5 cm de long, de couleur verte. Ils contiennent de nombreuses graines ovoïdes de 2 mm de long environ.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum oxycarpum se rencontre en milieux humides dans le sud du Mexique (États de Hidalgo, Oaxaca, Puebla, Queretaro, Veracruz) entre 1900 et 2900 mètres d'altitude.
 </t>
